--- a/pcor_tools/pcor_ingest/spreadsheet/pcor_geospatial_data_resource.xlsx
+++ b/pcor_tools/pcor_ingest/spreadsheet/pcor_geospatial_data_resource.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaymc/Documents/workspace-pcor/pcor_gen3_artifacts/pcor_tools/pcor_ingest/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6952D40E-8197-764D-95F4-39C0D9D23433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2533066-7F22-FD41-9010-0947773F2771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="22400" xr2:uid="{0E637B2F-D201-6448-B8F7-9EEB771C5771}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12380" windowHeight="22400" xr2:uid="{0E637B2F-D201-6448-B8F7-9EEB771C5771}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Validation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
     <author>NCBI User</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{D9751C40-347F-B14A-B180-11DEF3A69286}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{D9751C40-347F-B14A-B180-11DEF3A69286}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{CEE1AEE9-E074-6C43-B0CA-526A6EE6356A}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{CEE1AEE9-E074-6C43-B0CA-526A6EE6356A}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{B8059D0C-DCE4-2A4D-B214-F43A9E5C9F7A}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{B8059D0C-DCE4-2A4D-B214-F43A9E5C9F7A}">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Unique identifier for the project.
 </t>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{4002E7E7-E911-944A-9F6C-31F42A40709B}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{4002E7E7-E911-944A-9F6C-31F42A40709B}">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{20DAFAAF-AD2D-054E-AC20-96F8EB17F434}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{20DAFAAF-AD2D-054E-AC20-96F8EB17F434}">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{DD70A418-B70C-C049-B046-A72637CC7FD4}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{DD70A418-B70C-C049-B046-A72637CC7FD4}">
       <text>
         <r>
           <rPr>
@@ -222,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C1A609C2-A1ED-1144-8D51-BD9E1404FF23}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{C1A609C2-A1ED-1144-8D51-BD9E1404FF23}">
       <text>
         <r>
           <rPr>
@@ -237,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{0F975056-D58B-E049-8436-AED671E76AD4}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{0F975056-D58B-E049-8436-AED671E76AD4}">
       <text>
         <r>
           <rPr>
@@ -345,14 +344,13 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Name of the principal investigator for the project.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{8B2DF522-7BB5-FF4C-95D7-0FCB546684DD}">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{8B2DF522-7BB5-FF4C-95D7-0FCB546684DD}">
       <text>
         <r>
           <rPr>
@@ -366,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{41C9E664-BE91-C542-92B5-9FC1848CC8AD}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{41C9E664-BE91-C542-92B5-9FC1848CC8AD}">
       <text>
         <r>
           <rPr>
@@ -380,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{3D8C1940-66BF-FD46-BC48-FEDD775A94E8}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{3D8C1940-66BF-FD46-BC48-FEDD775A94E8}">
       <text>
         <r>
           <rPr>
@@ -389,9 +387,184 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+          </rPr>
+          <t>The name of source providing support/grant resources.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{89B6D06C-3BF3-024E-8061-37E00C4A4492}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>The name of source providing support/grant resources.</t>
+          <t>The ID of the source providing support/grant resources.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{F9153295-AC5F-D945-A35E-D8129FFB074C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">possible states a project can be in. All but 'open' are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">equivalent to some type of locked state.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{12D5C5C6-04C1-F64E-8B0E-5D8DFA9A7FDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Unique name, all caps, dash (-) separated. Example: EPA-122. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Unique identifier for the project.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{9349C009-77E7-C848-B977-9DAA9FA4DEA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> t</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ype of environmental phenomena being observed (e.g., air_pollution, wildfire plumes. Note this is the high level observable, the specific measures contribute to this observation).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This field supports multiple entries. Place eace entry in successive columns in this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{A120A261-B3F1-1844-8CF0-EDC84FB618F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Frequency of time points.
+</t>
         </r>
       </text>
     </comment>
@@ -400,7 +573,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -459,6 +632,12 @@
     </r>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>geospatial_data_resource</t>
+  </si>
+  <si>
     <t>PROGRAM</t>
   </si>
   <si>
@@ -483,40 +662,107 @@
     <t>availability type</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>date collected</t>
+  </si>
+  <si>
+    <t>investigator affiliation</t>
+  </si>
+  <si>
+    <t>investigator name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>short name</t>
+  </si>
+  <si>
+    <t>support source</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
     <t>Restricted</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>date collected</t>
-  </si>
-  <si>
-    <t>investigator affiliation</t>
-  </si>
-  <si>
-    <t>investigator name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>short name</t>
-  </si>
-  <si>
-    <t>support source</t>
+    <t>support id</t>
+  </si>
+  <si>
+    <t>project_state</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t># This section describes the resource that is the specific type for this template</t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>temporal_resolution</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>quarterly</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>temporal resolution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -603,8 +849,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +881,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -653,55 +919,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{516AC4FE-AE05-E643-ACC2-BC3B0E51D3F2}"/>
   </cellStyles>
@@ -716,6 +988,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,15 +1291,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBD591F-71B4-8D4C-8899-A270C150C296}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1047,71 +1324,75 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1127,108 +1408,200 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="12" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="20" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+    <row r="21" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+    <row r="25" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4EE5AA8-C929-464A-A027-12F17FB3CA6E}">
           <x14:formula1>
             <xm:f>Validation!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>B18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF86B539-450F-844D-B7B2-B8F24A1F887F}">
+          <x14:formula1>
+            <xm:f>Validation!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9B82486-E9B5-1747-B713-76882DCDEE66}">
+          <x14:formula1>
+            <xm:f>Validation!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1238,30 +1611,415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8A5DC8-3732-3A46-BFBC-890DDBBA2595}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005935BF067F8ACD46B3C6EF2258C28D09" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e886d676166cb7ae49bec2ac0bf243f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="820a8b12-53ce-4f8d-a44f-cb0888f07af4" xmlns:ns3="f8ccea31-b6eb-442e-9861-83bfaa3f0700" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e226ee36dee42837657b772ac6fcd020" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="820a8b12-53ce-4f8d-a44f-cb0888f07af4"/>
+    <xsd:import namespace="f8ccea31-b6eb-442e-9861-83bfaa3f0700"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="8" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="9" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="820a8b12-53ce-4f8d-a44f-cb0888f07af4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8ce9f98e-9ad5-43de-b59a-72d7e946aae0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f8ccea31-b6eb-442e-9861-83bfaa3f0700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8238c785-6c13-4178-94a7-7b8ce3682f2f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f8ccea31-b6eb-442e-9861-83bfaa3f0700">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f8ccea31-b6eb-442e-9861-83bfaa3f0700" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="820a8b12-53ce-4f8d-a44f-cb0888f07af4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A970B-FF16-4AB4-B023-04E198ABAD7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA839343-07D0-489C-B0E9-F9338D36941F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="820a8b12-53ce-4f8d-a44f-cb0888f07af4"/>
+    <ds:schemaRef ds:uri="f8ccea31-b6eb-442e-9861-83bfaa3f0700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA4D8767-8400-47FB-8DD5-A41B5BD08C2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="820a8b12-53ce-4f8d-a44f-cb0888f07af4"/>
+    <ds:schemaRef ds:uri="f8ccea31-b6eb-442e-9861-83bfaa3f0700"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/pcor_tools/pcor_ingest/spreadsheet/pcor_geospatial_data_resource.xlsx
+++ b/pcor_tools/pcor_ingest/spreadsheet/pcor_geospatial_data_resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaymc/Documents/workspace-pcor/pcor_gen3_artifacts/pcor_tools/pcor_ingest/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2533066-7F22-FD41-9010-0947773F2771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9860E38-8AB9-A74D-896B-FE2536D41500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12380" windowHeight="22400" xr2:uid="{0E637B2F-D201-6448-B8F7-9EEB771C5771}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35940" windowHeight="22400" xr2:uid="{0E637B2F-D201-6448-B8F7-9EEB771C5771}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -988,10 +988,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,7 +1290,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
